--- a/examples/sources/data/unsolved/to_schedule/2018-12-17.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-17.xlsx
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>43451</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
         <v>43451</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
         <v>43451</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
         <v>43451</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2">
         <v>43451</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N179">
         <v>1</v>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N180">
         <v>1</v>
@@ -8609,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="N181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O181" s="2">
         <v>43451</v>
@@ -8650,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="N182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O182" s="2">
         <v>43451</v>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N184">
         <v>1</v>
@@ -8773,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="N185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O185" s="2">
         <v>43451</v>
@@ -8814,7 +8814,7 @@
         <v>1</v>
       </c>
       <c r="N186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O186" s="2">
         <v>43451</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N187">
         <v>1</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N188">
         <v>1</v>
@@ -8937,7 +8937,7 @@
         <v>1</v>
       </c>
       <c r="N189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O189" s="2">
         <v>43451</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N190">
         <v>1</v>
@@ -9019,7 +9019,7 @@
         <v>1</v>
       </c>
       <c r="N191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O191" s="2">
         <v>43451</v>
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="N197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O197" s="2">
         <v>43451</v>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N198">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N199">
         <v>1</v>
@@ -9385,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="N201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O201" s="2">
         <v>43451</v>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N202">
         <v>1</v>
@@ -9511,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="N203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O203" s="2">
         <v>43451</v>
@@ -9549,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N204">
         <v>1</v>
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="N205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O205" s="2">
         <v>43451</v>
@@ -9634,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="N206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O206" s="2">
         <v>43451</v>
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N207">
         <v>1</v>
@@ -9716,7 +9716,7 @@
         <v>1</v>
       </c>
       <c r="N208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O208" s="2">
         <v>43451</v>
